--- a/assets/audit.xlsx
+++ b/assets/audit.xlsx
@@ -53,7 +53,7 @@
     <t xml:space="preserve">Perspective</t>
   </si>
   <si>
-    <t xml:space="preserve">"persepctives" OR "prise de position"</t>
+    <t xml:space="preserve">"perspectives" OR "prise de position"</t>
   </si>
   <si>
     <t xml:space="preserve">Actionnaire</t>
@@ -264,7 +264,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
